--- a/html/feat_val_table.xlsx
+++ b/html/feat_val_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler.TRN\Desktop\Projects\Facial-Recognition-explanation-LIME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler.TRN\Desktop\Projects\Facial-Recognition-explanation-LIME\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,24 +26,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>rec_total_princ</t>
-  </si>
-  <si>
-    <t>collection_recovery_fee</t>
-  </si>
-  <si>
-    <t>total_pymnt</t>
-  </si>
-  <si>
-    <t>total_pymnt_inv</t>
-  </si>
-  <si>
     <t>installment</t>
   </si>
   <si>
-    <t>lasy_pymnt_amnt</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -51,6 +36,21 @@
   </si>
   <si>
     <t xml:space="preserve">   Weight</t>
+  </si>
+  <si>
+    <t>ann_income</t>
+  </si>
+  <si>
+    <t>dti</t>
+  </si>
+  <si>
+    <t>emp_length</t>
+  </si>
+  <si>
+    <t>fico_score</t>
+  </si>
+  <si>
+    <t>pub_rec</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="F1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,20 +479,20 @@
     <row r="4" spans="6:10" ht="21" x14ac:dyDescent="0.35">
       <c r="F4" s="1"/>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="6:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2">
         <v>-0.92</v>
@@ -505,65 +505,65 @@
     <row r="6" spans="6:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="F6" s="1"/>
       <c r="G6" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6" s="4">
         <v>-0.08</v>
       </c>
       <c r="I6" s="5">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="6:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2">
         <v>-0.82</v>
       </c>
       <c r="I7" s="3">
-        <v>0.11</v>
+        <v>-0.11</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="6:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2">
         <v>-0.77</v>
       </c>
       <c r="I8" s="3">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="6:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
         <v>0.91</v>
       </c>
       <c r="I9" s="3">
-        <v>0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="6:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <v>-0.5</v>
       </c>
       <c r="I10" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="J10" s="1"/>
     </row>
